--- a/Project/Phase 2/Sprint 3/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint 3/Sprint Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Task</t>
   </si>
@@ -25,47 +25,29 @@
     <t>Develop User Story 1</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Guilherme Pereira</t>
+  </si>
+  <si>
+    <t>Develop User Story 2</t>
+  </si>
+  <si>
+    <t>João Vieira</t>
+  </si>
+  <si>
+    <t>Implement User Story 1</t>
+  </si>
+  <si>
     <t>In-progress</t>
-  </si>
-  <si>
-    <t>Guilherme Pereira</t>
-  </si>
-  <si>
-    <t>Develop User Story 2</t>
-  </si>
-  <si>
-    <t>João Vieira</t>
-  </si>
-  <si>
-    <t>Implement User Story 1</t>
-  </si>
-  <si>
-    <t>Implement User Story 2</t>
-  </si>
-  <si>
-    <t>To-do</t>
-  </si>
-  <si>
-    <t>Implement JUnit User Story 1</t>
-  </si>
-  <si>
-    <t>Implement JUnit User Story 2</t>
-  </si>
-  <si>
-    <t>Develop Use Case for User Story 1</t>
-  </si>
-  <si>
-    <t>Develop Use Case for User Story 2</t>
-  </si>
-  <si>
-    <t>Create Demo Video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -73,15 +55,27 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <i/>
+      <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
       <i/>
+      <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -99,14 +93,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -167,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -192,9 +186,10 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -453,66 +448,42 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
